--- a/data/trans_orig/P62AS2_2015-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P62AS2_2015-Provincia-trans_orig.xlsx
@@ -2907,7 +2907,7 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>58,34%</t>
+          <t>55,84%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>58,34%</t>
+          <t>55,84%</t>
         </is>
       </c>
     </row>
@@ -2971,12 +2971,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>89,12%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -2992,12 +2992,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>89,5%</t>
+          <t>89,12%</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>66,47%</t>
+          <t>66,96%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>66,47%</t>
+          <t>66,96%</t>
         </is>
       </c>
     </row>
